--- a/ENGG2800 BOM (2).xlsx
+++ b/ENGG2800 BOM (2).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhett\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhett\OneDrive\Documents\Projects\Loggy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B94D1-19F5-4D48-A888-F590E7D4F4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D05BFA0-39D6-432C-A47C-FCF1A46688D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="322">
   <si>
     <t>Designator</t>
   </si>
@@ -230,15 +230,9 @@
     <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10</t>
   </si>
   <si>
-    <t>Test point 1mm circular</t>
-  </si>
-  <si>
     <t>TP11, TP12, TP14, TP15</t>
   </si>
   <si>
-    <t>Test point 3mm circular</t>
-  </si>
-  <si>
     <t>TP13, TP16</t>
   </si>
   <si>
@@ -248,9 +242,6 @@
     <t>AVR 8-bit MCU</t>
   </si>
   <si>
-    <t>Seeeduino Xiao SAMD21</t>
-  </si>
-  <si>
     <t>U3, U4, U7, U8</t>
   </si>
   <si>
@@ -353,9 +344,6 @@
     <t>R6, R67</t>
   </si>
   <si>
-    <t>R67</t>
-  </si>
-  <si>
     <t>300, 0603 resistor, 100mW, 5%</t>
   </si>
   <si>
@@ -371,24 +359,12 @@
     <t>Fuse, 1206, 1A trip</t>
   </si>
   <si>
-    <t>FID1, FID2, FID3, FID4, FID5, FID6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fiducial 6mm </t>
   </si>
   <si>
-    <t>H1, H2, H3, H4</t>
-  </si>
-  <si>
     <t>Mounting hole 3mm</t>
   </si>
   <si>
-    <t>HW1, HW2, HW3, HW4, HW5, HW6, HW7, HW8, HW9, HW10, HW11, HW12</t>
-  </si>
-  <si>
-    <t>HW13, HW14, HW15, HW16, HW17, HW18, HW19, HW20</t>
-  </si>
-  <si>
     <t>Screw, M3 x 5mm</t>
   </si>
   <si>
@@ -956,15 +932,14 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Test point, 1mm ,circular</t>
+  </si>
+  <si>
+    <t>Test point, 3mm, circular</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Pinecone submission : </t>
+      <t xml:space="preserve">pinecone submission: </t>
     </r>
     <r>
       <rPr>
@@ -977,7 +952,119 @@
     </r>
   </si>
   <si>
-    <t>R25, R26, R44, R69</t>
+    <t>Seeeduino Xiao</t>
+  </si>
+  <si>
+    <t>Atmel</t>
+  </si>
+  <si>
+    <t>SAMD21</t>
+  </si>
+  <si>
+    <t>(All components from ETSG are RoHS complant)</t>
+  </si>
+  <si>
+    <t>EastRising Technology Co., Limited</t>
+  </si>
+  <si>
+    <t>ERM2004-2</t>
+  </si>
+  <si>
+    <t>24-05-10</t>
+  </si>
+  <si>
+    <t>R66</t>
+  </si>
+  <si>
+    <t>5k1, 0603 resistor, 100mW, 1%</t>
+  </si>
+  <si>
+    <t>RC0603FR-075K1L</t>
+  </si>
+  <si>
+    <t>311-5.10KHRCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/en/products/detail/yageo/RC0603FR-075K1L/727268</t>
+  </si>
+  <si>
+    <t>Total (Rounded)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <r>
+      <t>R25, R26, R44, R69</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (DNP)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FID1, FID2, FID3, FID4, FID5, FID6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (DNP)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">H1, H2, H3, H4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(DNP)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HW1, HW2, HW3, HW4, HW5, HW6, HW7, HW8, HW9, HW10, HW11, HW12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(DNP)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HW13, HW14, HW15, HW16, HW17, HW18, HW19, HW20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(DNP)</t>
+    </r>
+  </si>
+  <si>
+    <t>R68</t>
   </si>
 </sst>
 </file>
@@ -988,9 +1075,9 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1000,31 +1087,37 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF444444"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1052,6 +1145,19 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1103,10 +1209,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1118,32 +1225,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1360,11 +1472,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC64"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1372,13 +1484,13 @@
     <col min="1" max="1" width="153.7109375" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" customWidth="1"/>
     <col min="9" max="9" width="34.5703125" customWidth="1"/>
     <col min="10" max="10" width="113.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1410,21 +1522,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D2" s="9">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E2" s="3">
-        <v>0.4</v>
+        <f>(D2*C2)</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>15</v>
@@ -1442,7 +1555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1450,13 +1563,13 @@
         <v>20</v>
       </c>
       <c r="C3" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" s="9">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.43</v>
+        <v>0.13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.39</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>15</v>
@@ -1474,7 +1587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1487,7 +1600,7 @@
       <c r="D4" s="10">
         <v>0.17</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="3">
         <f>(C4*D4)</f>
         <v>0.34</v>
       </c>
@@ -1503,7 +1616,7 @@
       <c r="I4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="26" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1520,24 +1633,24 @@
       <c r="D5" s="11">
         <v>0.17</v>
       </c>
-      <c r="E5" s="10">
-        <f t="shared" ref="E5:E9" si="0">(C5*D5)</f>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E10" si="0">(C5*D5)</f>
         <v>0.68</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="J5" t="s">
-        <v>147</v>
+        <v>138</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1553,7 +1666,7 @@
       <c r="D6" s="11">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>0.53</v>
       </c>
@@ -1561,16 +1674,16 @@
         <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="J6" t="s">
-        <v>148</v>
+        <v>137</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1586,7 +1699,7 @@
       <c r="D7" s="11">
         <v>0.23</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>0.46</v>
       </c>
@@ -1594,16 +1707,16 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" t="s">
-        <v>142</v>
+        <v>133</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1619,24 +1732,24 @@
       <c r="D8" s="11">
         <v>0.3</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" t="s">
-        <v>152</v>
+        <v>143</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1652,7 +1765,7 @@
       <c r="D9" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>0.255</v>
       </c>
@@ -1660,378 +1773,378 @@
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>154</v>
-      </c>
-      <c r="J9" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>202</v>
+        <v>310</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0.17</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>202</v>
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>311</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>312</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>42</v>
+      <c r="A11" s="15" t="s">
+        <v>316</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="13">
-        <v>12</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="E11" s="10">
-        <f>(C11*D11)</f>
-        <v>1.6320000000000001</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" t="s">
-        <v>156</v>
+        <v>41</v>
+      </c>
+      <c r="C11" s="15">
+        <v>4</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>158</v>
-      </c>
-      <c r="J11" t="s">
-        <v>159</v>
+        <v>194</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="13">
+        <v>13</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" ref="E12:E24" si="1">(C12*D12)</f>
+        <v>1.7680000000000002</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C13" s="2">
         <v>10</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="19">
         <v>0.109</v>
       </c>
-      <c r="E12" s="10">
-        <f>(C12*D12)</f>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
         <v>1.0900000000000001</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.106</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.06</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.17</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
+      <c r="D16" s="19">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="J12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="13">
-        <v>10</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0.106</v>
-      </c>
-      <c r="E13" s="10">
-        <f>(C13*D13)</f>
-        <v>1.06</v>
-      </c>
-      <c r="F13" s="15" t="s">
+      <c r="H16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0.17</v>
+      </c>
+      <c r="E17" s="25">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G13" t="s">
-        <v>163</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
-        <v>164</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="G17" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="13">
-        <v>4</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="J17" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="19">
         <v>0.17</v>
       </c>
-      <c r="E14" s="10">
-        <f>(C14*D14)</f>
-        <v>0.68</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" t="s">
-        <v>166</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" t="s">
-        <v>167</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="E18" s="25">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="13">
-        <v>10</v>
-      </c>
-      <c r="D15" s="11">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="E15" s="10">
-        <f>(C15*D15)</f>
-        <v>0.45999999999999996</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="H18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J18" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0.17</v>
+      </c>
+      <c r="E19" s="25">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="G19" s="15" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="13">
-        <v>2</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="H19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="19">
         <v>0.17</v>
       </c>
-      <c r="E16" s="11">
-        <f>(C16*D16)</f>
-        <v>0.34</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E20" s="25">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G16" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="s">
-        <v>173</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="G20" s="15" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="13">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0.17</v>
-      </c>
-      <c r="E17" s="11">
-        <f>(C17*D17)</f>
-        <v>0.17</v>
-      </c>
-      <c r="F17" s="12" t="s">
+      <c r="H20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" s="26" t="s">
         <v>177</v>
-      </c>
-      <c r="G17" t="s">
-        <v>176</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" t="s">
-        <v>178</v>
-      </c>
-      <c r="J17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="13">
-        <v>1</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0.17</v>
-      </c>
-      <c r="E18" s="11">
-        <f>(C18*D18)</f>
-        <v>0.17</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G18" t="s">
-        <v>180</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" t="s">
-        <v>181</v>
-      </c>
-      <c r="J18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="13">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0.17</v>
-      </c>
-      <c r="E19" s="11">
-        <f>(C19*D19)</f>
-        <v>0.17</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" t="s">
-        <v>184</v>
-      </c>
-      <c r="J19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0.17</v>
-      </c>
-      <c r="E20" s="11">
-        <f>(C20*D20)</f>
-        <v>0.17</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G20" t="s">
-        <v>187</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" t="s">
-        <v>188</v>
-      </c>
-      <c r="J20" t="s">
-        <v>189</v>
       </c>
       <c r="K20" s="17"/>
       <c r="L20" s="8"/>
@@ -2054,1330 +2167,1480 @@
       <c r="AC20" s="8"/>
     </row>
     <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0.17</v>
+      </c>
+      <c r="E21" s="25">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B22" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C21">
+      <c r="C22" s="15">
         <v>1</v>
       </c>
-      <c r="D21" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="E21" s="11">
-        <f>(C21*D21)</f>
-        <v>0.3</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G21" t="s">
-        <v>190</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="D22" s="19">
+        <v>0.21</v>
+      </c>
+      <c r="E22" s="25">
+        <f t="shared" si="1"/>
+        <v>0.21</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0.36</v>
-      </c>
-      <c r="E22" s="11">
-        <f>(C22*D22)</f>
-        <v>0.36</v>
-      </c>
-      <c r="F22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G22" t="s">
-        <v>194</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" t="s">
-        <v>196</v>
-      </c>
-      <c r="J22" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>63</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="15">
+        <v>1</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0.36</v>
+      </c>
+      <c r="E23" s="25">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="15">
         <v>3</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="19">
         <v>0.45</v>
       </c>
-      <c r="E23" s="11">
-        <f>(C23*D23)</f>
+      <c r="E24" s="25">
+        <f t="shared" si="1"/>
         <v>1.35</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F24" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" s="15">
+        <v>10</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C26" s="15">
+        <v>4</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="25">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="15">
+        <v>2</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="E27" s="25">
+        <f t="shared" ref="E27:E47" si="2">(C27*D27)</f>
+        <v>1.28</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" s="21">
+        <v>5011</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1</v>
+      </c>
+      <c r="D28" s="19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E28" s="25">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G28" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J28" s="26" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24" s="25" t="s">
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C29" s="15">
+        <v>1</v>
+      </c>
+      <c r="D29" s="19">
+        <v>8.25</v>
+      </c>
+      <c r="E29" s="25">
+        <v>8.25</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="15">
+        <v>4</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.31</v>
+      </c>
+      <c r="E30" s="25">
+        <f t="shared" si="2"/>
+        <v>1.24</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25">
+      <c r="H30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="15">
         <v>4</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26">
+      <c r="D31" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="E31" s="25">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="15">
         <v>2</v>
       </c>
-      <c r="D26" s="11">
-        <v>0.64</v>
-      </c>
-      <c r="E26" s="11">
-        <f>(C26*D26)</f>
-        <v>1.28</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="D32" s="19">
+        <v>7.24</v>
+      </c>
+      <c r="E32" s="25">
+        <f t="shared" si="2"/>
+        <v>14.48</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G26" s="19">
-        <v>5011</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" t="s">
-        <v>204</v>
-      </c>
-      <c r="J26" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27">
+      <c r="G32" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="15">
+        <v>2</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="E33" s="25">
+        <f t="shared" si="2"/>
+        <v>0.36</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="15">
         <v>1</v>
       </c>
-      <c r="D27" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E27" s="11">
-        <f>(C27*D27)</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="G27" t="s">
-        <v>206</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" t="s">
-        <v>208</v>
-      </c>
-      <c r="J27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28">
+      <c r="D34" s="19">
+        <v>2.46</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="2"/>
+        <v>2.46</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="15">
         <v>1</v>
       </c>
-      <c r="D28" s="11">
-        <v>8.25</v>
-      </c>
-      <c r="E28" s="11">
-        <f>(C28*D28)</f>
-        <v>8.25</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29" s="11">
-        <v>0.31</v>
-      </c>
-      <c r="E29" s="11">
-        <f>(C29*D29)</f>
+      <c r="D35" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="2"/>
+        <v>0.88</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="15">
+        <v>1</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0.33</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="2"/>
+        <v>0.33</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="15">
+        <v>2</v>
+      </c>
+      <c r="D37" s="19">
         <v>1.24</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G29" t="s">
-        <v>210</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" t="s">
-        <v>212</v>
-      </c>
-      <c r="J29" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E30" s="11">
-        <f>(C30*D30)</f>
-        <v>0.8</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G30" t="s">
-        <v>214</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" t="s">
-        <v>215</v>
-      </c>
-      <c r="J30" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" s="11">
-        <v>7.24</v>
-      </c>
-      <c r="E31" s="11">
-        <f>(C31*D31)</f>
-        <v>14.48</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G31" t="s">
-        <v>217</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" t="s">
-        <v>218</v>
-      </c>
-      <c r="J31" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" s="11">
-        <v>0.18</v>
-      </c>
-      <c r="E32" s="11">
-        <f>(C32*D32)</f>
+      <c r="E37" s="25">
+        <f t="shared" si="2"/>
+        <v>2.48</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="15">
+        <v>1</v>
+      </c>
+      <c r="D38" s="19">
         <v>0.36</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G32" t="s">
-        <v>220</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" t="s">
-        <v>221</v>
-      </c>
-      <c r="J32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" s="11">
-        <v>2.46</v>
-      </c>
-      <c r="E33" s="11">
-        <f>(C33*D33)</f>
-        <v>2.46</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="G33" t="s">
-        <v>223</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" t="s">
-        <v>225</v>
-      </c>
-      <c r="J33" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="11">
-        <v>0.88</v>
-      </c>
-      <c r="E34" s="11">
-        <f>(C34*D34)</f>
-        <v>0.88</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G34" t="s">
-        <v>227</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="E38" s="25">
+        <f t="shared" si="2"/>
+        <v>0.36</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G38" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="J34" t="s">
+      <c r="H38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="15" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" s="11">
-        <v>0.33</v>
-      </c>
-      <c r="E35" s="11">
-        <f>(C35*D35)</f>
-        <v>0.33</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="J38" s="26" t="s">
         <v>230</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" t="s">
-        <v>231</v>
-      </c>
-      <c r="J35" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" s="11">
-        <v>1.24</v>
-      </c>
-      <c r="E36" s="11">
-        <f>(C36*D36)</f>
-        <v>2.48</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G36" t="s">
-        <v>233</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" t="s">
-        <v>234</v>
-      </c>
-      <c r="J36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" s="11">
-        <v>0.36</v>
-      </c>
-      <c r="E37" s="11">
-        <f>(C37*D37)</f>
-        <v>0.36</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G37" t="s">
-        <v>236</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" t="s">
-        <v>237</v>
-      </c>
-      <c r="J37" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" s="11">
-        <v>0.61</v>
-      </c>
-      <c r="E38" s="11">
-        <f>(C38*D38)</f>
-        <v>0.61</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G38" t="s">
-        <v>239</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" t="s">
-        <v>240</v>
-      </c>
-      <c r="J38" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39" s="18">
-        <v>0.41</v>
-      </c>
-      <c r="E39" s="11">
-        <f>(C39*D39)</f>
-        <v>1.64</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="G39" t="s">
-        <v>242</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" t="s">
-        <v>244</v>
-      </c>
-      <c r="J39" t="s">
-        <v>245</v>
+        <v>88</v>
+      </c>
+      <c r="C39" s="15">
+        <v>1</v>
+      </c>
+      <c r="D39" s="19">
+        <v>0.61</v>
+      </c>
+      <c r="E39" s="25">
+        <f t="shared" si="2"/>
+        <v>0.61</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="J39" s="26" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" s="18">
+        <v>89</v>
+      </c>
+      <c r="C40" s="15">
+        <v>3</v>
+      </c>
+      <c r="D40" s="22">
         <v>0.41</v>
       </c>
-      <c r="E40" s="11">
-        <f>(C40*D40)</f>
-        <v>0.41</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="G40" t="s">
-        <v>246</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" t="s">
-        <v>247</v>
-      </c>
-      <c r="J40" t="s">
-        <v>248</v>
+      <c r="E40" s="25">
+        <f t="shared" si="2"/>
+        <v>1.23</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41">
+        <v>92</v>
+      </c>
+      <c r="C41" s="15">
         <v>1</v>
       </c>
-      <c r="D41" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="E41" s="11">
-        <f>(C41*D41)</f>
-        <v>0.25</v>
-      </c>
-      <c r="F41" s="12"/>
-      <c r="H41" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>300</v>
+      <c r="D41" s="22">
+        <v>0.41</v>
+      </c>
+      <c r="E41" s="25">
+        <f t="shared" si="2"/>
+        <v>0.41</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="J41" s="26" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42">
+        <v>93</v>
+      </c>
+      <c r="C42" s="15">
         <v>1</v>
       </c>
-      <c r="D42" s="18">
-        <v>0.24</v>
-      </c>
-      <c r="E42" s="11">
-        <f>(C42*D42)</f>
-        <v>0.24</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>301</v>
+      <c r="D42" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="E42" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43">
+        <v>97</v>
+      </c>
+      <c r="C43" s="15">
         <v>1</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="22">
         <v>0.24</v>
       </c>
-      <c r="E43" s="11">
-        <f>(C43*D43)</f>
+      <c r="E43" s="25">
         <v>0.24</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="I43" s="22" t="s">
-        <v>302</v>
+      <c r="F43" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44">
+        <v>98</v>
+      </c>
+      <c r="C44" s="15">
         <v>1</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="22">
+        <v>0.24</v>
+      </c>
+      <c r="E44" s="25">
+        <v>0.24</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="15">
+        <v>1</v>
+      </c>
+      <c r="D45" s="22">
         <v>1.0900000000000001</v>
       </c>
-      <c r="E44" s="11">
-        <f>(C44*D44)</f>
+      <c r="E45" s="25">
+        <f t="shared" si="2"/>
         <v>1.0900000000000001</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F45" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="15">
+        <v>1</v>
+      </c>
+      <c r="D46" s="22">
+        <v>7.45</v>
+      </c>
+      <c r="E46" s="25">
+        <v>7.45</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="15">
+        <v>2</v>
+      </c>
+      <c r="D47" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="E47" s="25">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="15">
+        <v>6</v>
+      </c>
+      <c r="D48" s="20">
+        <v>0</v>
+      </c>
+      <c r="E48" s="25">
+        <v>0</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="15">
+        <v>4</v>
+      </c>
+      <c r="D49" s="20">
+        <v>0</v>
+      </c>
+      <c r="E49" s="25">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="15">
+        <v>12</v>
+      </c>
+      <c r="D50" s="22">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="E50" s="25">
+        <f t="shared" ref="E50:E62" si="3">(C50*D50)</f>
+        <v>1.944</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G50" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="G44" t="s">
-        <v>249</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="H50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J50" s="26" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45">
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="15">
+        <v>8</v>
+      </c>
+      <c r="D51" s="22">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="E51" s="25">
+        <f t="shared" si="3"/>
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="J51" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="15">
         <v>1</v>
       </c>
-      <c r="D45" s="18">
-        <v>7.45</v>
-      </c>
-      <c r="E45" s="11">
-        <f>(C45*D45)</f>
-        <v>7.45</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46">
+      <c r="D52" s="22">
+        <v>0.71</v>
+      </c>
+      <c r="E52" s="25">
+        <f t="shared" si="3"/>
+        <v>0.71</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G52" s="21">
+        <v>61200621621</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J52" s="26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="15">
+        <v>1</v>
+      </c>
+      <c r="D53" s="22">
+        <v>0.71</v>
+      </c>
+      <c r="E53" s="25">
+        <f t="shared" si="3"/>
+        <v>0.71</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G53" s="21">
+        <v>22053031</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J53" s="26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="15">
         <v>2</v>
       </c>
-      <c r="D46" s="18">
-        <v>0.45</v>
-      </c>
-      <c r="E46" s="11">
-        <f>(C46*D46)</f>
-        <v>0.9</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="G46" t="s">
-        <v>254</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="D54" s="22">
+        <v>0.53</v>
+      </c>
+      <c r="E54" s="25">
+        <f t="shared" si="3"/>
+        <v>1.06</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="J54" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="15">
+        <v>2</v>
+      </c>
+      <c r="D55" s="22">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E55" s="25">
+        <f t="shared" si="3"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="J46" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47">
-        <v>6</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="J47" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="J48" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49">
-        <v>12</v>
-      </c>
-      <c r="D49" s="18">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="E49" s="11">
-        <f>(C49*D49)</f>
-        <v>1.944</v>
-      </c>
-      <c r="F49" s="12" t="s">
+      <c r="G55" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="J55" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="15">
+        <v>3</v>
+      </c>
+      <c r="D56" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="E56" s="25">
+        <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G49" t="s">
-        <v>258</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" t="s">
-        <v>260</v>
-      </c>
-      <c r="J49" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50">
-        <v>8</v>
-      </c>
-      <c r="D50" s="18">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="E50" s="11">
-        <f>(C50*D50)</f>
-        <v>4.7679999999999998</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="G50" t="s">
-        <v>262</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" t="s">
-        <v>270</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="G56" s="24" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" s="18">
-        <v>0.71</v>
-      </c>
-      <c r="E51" s="11">
-        <f>(C51*D51)</f>
-        <v>0.71</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="G51" s="19">
-        <v>61200621621</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" t="s">
-        <v>265</v>
-      </c>
-      <c r="J51" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" s="18">
-        <v>0.71</v>
-      </c>
-      <c r="E52" s="11">
-        <f>(C52*D52)</f>
-        <v>0.71</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="G52" s="19">
-        <v>22053031</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" t="s">
-        <v>268</v>
-      </c>
-      <c r="J52" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53" s="18">
-        <v>0.53</v>
-      </c>
-      <c r="E53" s="11">
-        <f>(C53*D53)</f>
-        <v>1.06</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G53" s="19" t="s">
+      <c r="H56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H53" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="J56" s="26" t="s">
         <v>273</v>
-      </c>
-      <c r="J53" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54" s="18">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="E54" s="11">
-        <f>(C54*D54)</f>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="G54" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" t="s">
-        <v>276</v>
-      </c>
-      <c r="J54" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55" s="18">
-        <v>0.21</v>
-      </c>
-      <c r="E55" s="11">
-        <f>(C55*D55)</f>
-        <v>0.63</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" t="s">
-        <v>280</v>
-      </c>
-      <c r="J55" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>130</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="E56" s="11">
-        <f>(C56*D56)</f>
-        <v>0.2</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" t="s">
-        <v>283</v>
-      </c>
-      <c r="J56" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>297</v>
+        <v>122</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="C57">
+        <v>123</v>
+      </c>
+      <c r="C57" s="15">
         <v>1</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="E57" s="25">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="J57" s="26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C58" s="15">
+        <v>1</v>
+      </c>
+      <c r="D58" s="22">
         <v>0.7</v>
       </c>
-      <c r="E57" s="11">
-        <f>(C57*D57)</f>
+      <c r="E58" s="25">
         <v>0.7</v>
       </c>
-      <c r="G57" s="15"/>
-      <c r="H57" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="I57" s="15" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" s="18">
-        <v>0.31</v>
-      </c>
-      <c r="E58" s="11">
-        <f>(C58*D58)</f>
-        <v>0.31</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" t="s">
-        <v>286</v>
-      </c>
-      <c r="J58" t="s">
-        <v>287</v>
+      <c r="F58" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59">
-        <v>16</v>
-      </c>
-      <c r="D59" s="18">
-        <v>7.8E-2</v>
-      </c>
-      <c r="E59" s="11">
-        <f>(C59*D59)</f>
-        <v>1.248</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" t="s">
-        <v>288</v>
-      </c>
-      <c r="J59" t="s">
-        <v>290</v>
+        <v>125</v>
+      </c>
+      <c r="C59" s="15">
+        <v>1</v>
+      </c>
+      <c r="D59" s="22">
+        <v>0.31</v>
+      </c>
+      <c r="E59" s="25">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="J59" s="26" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" s="18">
-        <v>0.17</v>
-      </c>
-      <c r="E60" s="11">
-        <f>(C60*D60)</f>
-        <v>0.17</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" t="s">
-        <v>292</v>
-      </c>
-      <c r="J60" t="s">
-        <v>293</v>
+        <v>127</v>
+      </c>
+      <c r="C60" s="15">
+        <v>16</v>
+      </c>
+      <c r="D60" s="22">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E60" s="25">
+        <f t="shared" si="3"/>
+        <v>1.248</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="J60" s="26" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61">
+        <v>129</v>
+      </c>
+      <c r="C61" s="15">
         <v>1</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="22">
         <v>0.17</v>
       </c>
-      <c r="E61" s="11">
-        <f>(C61*D61)</f>
+      <c r="E61" s="25">
+        <f t="shared" si="3"/>
         <v>0.17</v>
       </c>
-      <c r="F61" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="G61" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" t="s">
-        <v>296</v>
-      </c>
-      <c r="J61" t="s">
-        <v>295</v>
+      <c r="F61" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="J61" s="26" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>304</v>
+        <v>130</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C62">
+        <v>131</v>
+      </c>
+      <c r="C62" s="15">
         <v>1</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="22">
+        <v>0.17</v>
+      </c>
+      <c r="E62" s="25">
+        <f t="shared" si="3"/>
+        <v>0.17</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C63" s="15">
+        <v>1</v>
+      </c>
+      <c r="D63" s="22">
         <v>15.99</v>
       </c>
-      <c r="E62" s="23">
-        <f>(C62*D62)</f>
+      <c r="E63" s="25">
         <v>15.99</v>
       </c>
-      <c r="J62" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D64" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="E64" s="24">
-        <f>SUM(E2:E62)</f>
-        <v>92.387</v>
-      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="J63" s="15"/>
+    </row>
+    <row r="65" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D65" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E65" s="29">
+        <f>SUM(E2:E63)</f>
+        <v>92.032999999999987</v>
+      </c>
+    </row>
+    <row r="66" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>314</v>
+      </c>
+      <c r="E66" s="30">
+        <v>92.04</v>
+      </c>
+    </row>
+    <row r="67" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{86814952-6FA5-44E5-AA98-FFA510D66BD4}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{C96C8ADF-8B99-4C45-B4D3-A7B326E8DBF1}"/>
+    <hyperlink ref="J6" r:id="rId3" xr:uid="{91ABF638-F469-4C66-8AD2-A31C7FB5A28E}"/>
+    <hyperlink ref="J7" r:id="rId4" xr:uid="{04D5DA7A-566D-44D9-A57B-D2401CFFAF24}"/>
+    <hyperlink ref="J8" r:id="rId5" xr:uid="{E179EA10-7AD3-4C26-B2D5-A72513191AF3}"/>
+    <hyperlink ref="J9" r:id="rId6" xr:uid="{119D6E30-388D-4379-8C85-CC64DCA5C43D}"/>
+    <hyperlink ref="J12" r:id="rId7" xr:uid="{13EA4F62-EC8F-4851-A8AA-7D1FCB8E43A5}"/>
+    <hyperlink ref="J13" r:id="rId8" xr:uid="{9693EBA0-0573-42AB-B442-64F58C65E0E8}"/>
+    <hyperlink ref="J14" r:id="rId9" xr:uid="{2A782F5B-FFEF-4F70-A30A-680E8B043750}"/>
+    <hyperlink ref="J15" r:id="rId10" xr:uid="{8A587E9A-9FE4-4D62-9410-731C0C31C83A}"/>
+    <hyperlink ref="J16" r:id="rId11" xr:uid="{131AA28D-5C27-42D2-9BDA-6533B0876B0C}"/>
+    <hyperlink ref="J17" r:id="rId12" xr:uid="{6015B192-3837-443D-AEF4-4482E4984C9A}"/>
+    <hyperlink ref="J18" r:id="rId13" xr:uid="{F672E00F-62B1-477B-888E-8E6985EDAB78}"/>
+    <hyperlink ref="J19" r:id="rId14" xr:uid="{ABF24F81-7AF4-416F-A243-896213BA3993}"/>
+    <hyperlink ref="J20" r:id="rId15" xr:uid="{82BF4270-426F-4754-B9F4-DCC006886CF0}"/>
+    <hyperlink ref="J21" r:id="rId16" xr:uid="{D6497BA2-F130-4395-9735-8C854EF780D6}"/>
+    <hyperlink ref="J22" r:id="rId17" xr:uid="{6A668D46-014B-4247-AE0D-DC911C8E72CB}"/>
+    <hyperlink ref="J23" r:id="rId18" xr:uid="{6A013FA5-3BFC-4E43-803D-B27F85757676}"/>
+    <hyperlink ref="J24" r:id="rId19" xr:uid="{31A58561-C96C-4163-AC42-544253C26083}"/>
+    <hyperlink ref="J27" r:id="rId20" xr:uid="{4ED814CD-FE54-4D40-BCF7-51DA0D349E45}"/>
+    <hyperlink ref="J28" r:id="rId21" xr:uid="{B28472BA-A5E1-438C-A8B6-823F5A61ED64}"/>
+    <hyperlink ref="J30" r:id="rId22" xr:uid="{9EE990D2-15F1-44BE-9C6C-A025762B1335}"/>
+    <hyperlink ref="J31" r:id="rId23" xr:uid="{E657307A-3125-423A-98FE-C6678C4C62F6}"/>
+    <hyperlink ref="J32" r:id="rId24" xr:uid="{40604D12-B285-4AF0-B703-11C7F44D0611}"/>
+    <hyperlink ref="J33" r:id="rId25" xr:uid="{8E041B0F-BEF7-4A80-926B-0C4CBDF90618}"/>
+    <hyperlink ref="J34" r:id="rId26" xr:uid="{BDDE5250-2806-4E27-BF83-36FB1B143B31}"/>
+    <hyperlink ref="J35" r:id="rId27" xr:uid="{166C6453-EEAF-43C1-8802-4280F53E3E96}"/>
+    <hyperlink ref="J36" r:id="rId28" xr:uid="{433D33B9-A085-49CE-828D-C01A2E4FB9FD}"/>
+    <hyperlink ref="J37" r:id="rId29" xr:uid="{62E3A2BD-9E81-4EDA-9D0A-77DCBB64829E}"/>
+    <hyperlink ref="J38" r:id="rId30" xr:uid="{9FB85F6C-0495-4346-8DAA-E385CD628C7D}"/>
+    <hyperlink ref="J39" r:id="rId31" xr:uid="{F3966892-9674-4256-88B4-8C78904E50FD}"/>
+    <hyperlink ref="J40" r:id="rId32" xr:uid="{CE271ABF-2792-4327-B3B9-BE982949C34E}"/>
+    <hyperlink ref="J41" r:id="rId33" xr:uid="{60D851B6-B96C-4736-BED7-0975267B51CA}"/>
+    <hyperlink ref="J45" r:id="rId34" xr:uid="{1844270C-24F0-4BF2-92BB-EB71E6E5CC6F}"/>
+    <hyperlink ref="J47" r:id="rId35" xr:uid="{22501FB8-3CF6-4380-AB1F-8E4C26ABDCBA}"/>
+    <hyperlink ref="J50" r:id="rId36" xr:uid="{DE9FA2A7-298E-4F1E-AD04-C10E45701DC5}"/>
+    <hyperlink ref="J51" r:id="rId37" xr:uid="{9D810AC5-4097-4B88-AF81-9F473E7E213A}"/>
+    <hyperlink ref="J52" r:id="rId38" xr:uid="{AAB40346-ACDC-4D32-931B-DDD0E9F57DA4}"/>
+    <hyperlink ref="J53" r:id="rId39" xr:uid="{2120CBC5-23A1-4BDA-BD01-9C3CCA6AA1D8}"/>
+    <hyperlink ref="J54" r:id="rId40" xr:uid="{FA58402E-A544-4C51-88D1-B9FFD42B01C9}"/>
+    <hyperlink ref="J55" r:id="rId41" xr:uid="{9CF369EA-7333-44C8-B539-8E4A0EC55C19}"/>
+    <hyperlink ref="J56" r:id="rId42" xr:uid="{4C563842-A418-4E7E-A3C7-C72EB0A9B140}"/>
+    <hyperlink ref="J57" r:id="rId43" xr:uid="{5BADEB85-B561-41F0-B604-73CF1D5D6380}"/>
+    <hyperlink ref="J59" r:id="rId44" xr:uid="{694CCA67-7EDD-4D84-819C-12D59D7E1916}"/>
+    <hyperlink ref="J60" r:id="rId45" xr:uid="{7F420C9F-735C-4153-8998-74FC8252A33F}"/>
+    <hyperlink ref="J61" r:id="rId46" xr:uid="{288310EE-0019-4995-93E8-6E9DD00EF34B}"/>
+    <hyperlink ref="J62" r:id="rId47" xr:uid="{882D76A6-55A3-46E1-A2DA-8CE6CDB752FA}"/>
+    <hyperlink ref="J10" r:id="rId48" xr:uid="{AB931BA8-7CF8-420D-BC37-B71EDF76DC86}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId49"/>
 </worksheet>
 </file>